--- a/KnowledgeGraph/data/liquidity_arrangement.xlsx
+++ b/KnowledgeGraph/data/liquidity_arrangement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="21191" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>名词</t>
   </si>
@@ -22,22 +22,34 @@
     <t>定义</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>产品质押</t>
   </si>
   <si>
     <t>产品质押是债务人或第三人向债权人移转某项理财产品财产的占有权，并由后者掌握该项财产，以作为前者履行某种支付金钱或履约责任的担保。</t>
   </si>
   <si>
+    <t>产品抵押,抵押</t>
+  </si>
+  <si>
     <t>提前终止</t>
   </si>
   <si>
     <t>理财计划提前终止并进入清算环节。</t>
   </si>
   <si>
+    <t>提前清算,提前结算</t>
+  </si>
+  <si>
     <t>延期</t>
   </si>
   <si>
     <t>理财产品到期后因为特殊原因没有兑付而被延期的情况。</t>
+  </si>
+  <si>
+    <t>推迟,推迟兑付</t>
   </si>
 </sst>
 </file>
@@ -50,7 +62,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,15 +71,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,9 +148,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,90 +178,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -219,13 +224,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +350,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,61 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,91 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,80 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,6 +441,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,133 +535,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -664,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,44 +991,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
